--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4330.250525566509</v>
+        <v>4537.28076045752</v>
       </c>
       <c r="AB2" t="n">
-        <v>5924.839806250896</v>
+        <v>6208.107707158147</v>
       </c>
       <c r="AC2" t="n">
-        <v>5359.381410706981</v>
+        <v>5615.614620720628</v>
       </c>
       <c r="AD2" t="n">
-        <v>4330250.525566509</v>
+        <v>4537280.76045752</v>
       </c>
       <c r="AE2" t="n">
-        <v>5924839.806250896</v>
+        <v>6208107.707158146</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.429185073933704e-07</v>
+        <v>9.268727333516311e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.275390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5359381.410706981</v>
+        <v>5615614.620720629</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2051.582298875529</v>
+        <v>2189.545501894122</v>
       </c>
       <c r="AB3" t="n">
-        <v>2807.065410744691</v>
+        <v>2995.832751621682</v>
       </c>
       <c r="AC3" t="n">
-        <v>2539.163027684264</v>
+        <v>2709.914678484583</v>
       </c>
       <c r="AD3" t="n">
-        <v>2051582.298875529</v>
+        <v>2189545.501894122</v>
       </c>
       <c r="AE3" t="n">
-        <v>2807065.410744691</v>
+        <v>2995832.751621682</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.016289275773575e-06</v>
+        <v>1.465148083434869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.90559895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2539163.027684264</v>
+        <v>2709914.678484583</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1668.091407776785</v>
+        <v>1780.23993777205</v>
       </c>
       <c r="AB4" t="n">
-        <v>2282.356255119316</v>
+        <v>2435.802821502793</v>
       </c>
       <c r="AC4" t="n">
-        <v>2064.531377437851</v>
+        <v>2203.333218889297</v>
       </c>
       <c r="AD4" t="n">
-        <v>1668091.407776785</v>
+        <v>1780239.93777205</v>
       </c>
       <c r="AE4" t="n">
-        <v>2282356.255119316</v>
+        <v>2435802.821502793</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.159606137354874e-06</v>
+        <v>1.671762902734136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2064531.37743785</v>
+        <v>2203333.218889297</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1499.71900188466</v>
+        <v>1611.867442371374</v>
       </c>
       <c r="AB5" t="n">
-        <v>2051.98170131141</v>
+        <v>2205.428145225339</v>
       </c>
       <c r="AC5" t="n">
-        <v>1856.143447712654</v>
+        <v>1994.945178382874</v>
       </c>
       <c r="AD5" t="n">
-        <v>1499719.00188466</v>
+        <v>1611867.442371374</v>
       </c>
       <c r="AE5" t="n">
-        <v>2051981.70131141</v>
+        <v>2205428.145225339</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.235139258540066e-06</v>
+        <v>1.780656315641697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.60611979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1856143.447712654</v>
+        <v>1994945.178382874</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1400.706889934591</v>
+        <v>1504.307303480393</v>
       </c>
       <c r="AB6" t="n">
-        <v>1916.508961635231</v>
+        <v>2058.259617976271</v>
       </c>
       <c r="AC6" t="n">
-        <v>1733.600036173985</v>
+        <v>1861.822208822132</v>
       </c>
       <c r="AD6" t="n">
-        <v>1400706.889934591</v>
+        <v>1504307.303480393</v>
       </c>
       <c r="AE6" t="n">
-        <v>1916508.961635231</v>
+        <v>2058259.617976271</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>1.850515006987834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.67838541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1733600.036173985</v>
+        <v>1861822.208822132</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1340.679698451916</v>
+        <v>1435.646833710785</v>
       </c>
       <c r="AB7" t="n">
-        <v>1834.377110035849</v>
+        <v>1964.31533415135</v>
       </c>
       <c r="AC7" t="n">
-        <v>1659.306733218471</v>
+        <v>1776.843835593831</v>
       </c>
       <c r="AD7" t="n">
-        <v>1340679.698451916</v>
+        <v>1435646.833710785</v>
       </c>
       <c r="AE7" t="n">
-        <v>1834377.110035849</v>
+        <v>1964315.33415135</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315714145539846e-06</v>
+        <v>1.896818262908973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1659306.733218471</v>
+        <v>1776843.835593831</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1284.041924476443</v>
+        <v>1387.556997167673</v>
       </c>
       <c r="AB8" t="n">
-        <v>1756.882809000368</v>
+        <v>1898.51669821921</v>
       </c>
       <c r="AC8" t="n">
-        <v>1589.208379509881</v>
+        <v>1717.324929126089</v>
       </c>
       <c r="AD8" t="n">
-        <v>1284041.924476443</v>
+        <v>1387556.997167673</v>
       </c>
       <c r="AE8" t="n">
-        <v>1756882.809000368</v>
+        <v>1898516.69821921</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.340642876511967e-06</v>
+        <v>1.932757127243112e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.66927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1589208.379509881</v>
+        <v>1717324.929126089</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1226.216399089151</v>
+        <v>1321.09819349345</v>
       </c>
       <c r="AB9" t="n">
-        <v>1677.763374083341</v>
+        <v>1807.584831076645</v>
       </c>
       <c r="AC9" t="n">
-        <v>1517.639992416511</v>
+        <v>1635.071471759934</v>
       </c>
       <c r="AD9" t="n">
-        <v>1226216.399089151</v>
+        <v>1321098.19349345</v>
       </c>
       <c r="AE9" t="n">
-        <v>1677763.374083341</v>
+        <v>1807584.831076645</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>1.975156911008108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.18424479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1517639.992416511</v>
+        <v>1635071.471759934</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1216.018570055666</v>
+        <v>1310.900364459964</v>
       </c>
       <c r="AB10" t="n">
-        <v>1663.810254503261</v>
+        <v>1793.631711496565</v>
       </c>
       <c r="AC10" t="n">
-        <v>1505.018538985827</v>
+        <v>1622.45001832925</v>
       </c>
       <c r="AD10" t="n">
-        <v>1216018.570055666</v>
+        <v>1310900.364459964</v>
       </c>
       <c r="AE10" t="n">
-        <v>1663810.254503261</v>
+        <v>1793631.711496565</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.369773078996244e-06</v>
+        <v>1.97475310354368e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1505018.538985827</v>
+        <v>1622450.01832925</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1174.815360051718</v>
+        <v>1278.245091888376</v>
       </c>
       <c r="AB11" t="n">
-        <v>1607.434204818526</v>
+        <v>1748.95132691517</v>
       </c>
       <c r="AC11" t="n">
-        <v>1454.02294035872</v>
+        <v>1582.03386694299</v>
       </c>
       <c r="AD11" t="n">
-        <v>1174815.360051718</v>
+        <v>1278245.091888377</v>
       </c>
       <c r="AE11" t="n">
-        <v>1607434.204818526</v>
+        <v>1748951.32691517</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.383404519902348e-06</v>
+        <v>1.994405066812535e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.96940104166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1454022.94035872</v>
+        <v>1582033.86694299</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1145.609524990401</v>
+        <v>1249.03925682706</v>
       </c>
       <c r="AB12" t="n">
-        <v>1567.473492817124</v>
+        <v>1708.990614913769</v>
       </c>
       <c r="AC12" t="n">
-        <v>1417.876022625522</v>
+        <v>1545.886949209791</v>
       </c>
       <c r="AD12" t="n">
-        <v>1145609.524990401</v>
+        <v>1249039.25682706</v>
       </c>
       <c r="AE12" t="n">
-        <v>1567473.492817124</v>
+        <v>1708990.614913769</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.393207953430711e-06</v>
+        <v>2.008538328067534e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.81640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1417876.022625522</v>
+        <v>1545886.949209791</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1117.967808155987</v>
+        <v>1212.934853906306</v>
       </c>
       <c r="AB13" t="n">
-        <v>1529.652876377799</v>
+        <v>1659.590978023752</v>
       </c>
       <c r="AC13" t="n">
-        <v>1383.664952737597</v>
+        <v>1501.201944331731</v>
       </c>
       <c r="AD13" t="n">
-        <v>1117967.808155987</v>
+        <v>1212934.853906306</v>
       </c>
       <c r="AE13" t="n">
-        <v>1529652.876377799</v>
+        <v>1659590.978023752</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.401050700253401e-06</v>
+        <v>2.019844937071533e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1383664.952737597</v>
+        <v>1501201.944331731</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1104.35605222821</v>
+        <v>1199.323097978528</v>
       </c>
       <c r="AB14" t="n">
-        <v>1511.028671409123</v>
+        <v>1640.966773055077</v>
       </c>
       <c r="AC14" t="n">
-        <v>1366.818215751896</v>
+        <v>1484.355207346031</v>
       </c>
       <c r="AD14" t="n">
-        <v>1104356.05222821</v>
+        <v>1199323.097978528</v>
       </c>
       <c r="AE14" t="n">
-        <v>1511028.671409123</v>
+        <v>1640966.773055077</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.405532269866366e-06</v>
+        <v>2.02630585650239e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.62434895833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1366818.215751896</v>
+        <v>1484355.207346031</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1109.06989985737</v>
+        <v>1204.036945607688</v>
       </c>
       <c r="AB15" t="n">
-        <v>1517.478365695621</v>
+        <v>1647.416467341574</v>
       </c>
       <c r="AC15" t="n">
-        <v>1372.652360267892</v>
+        <v>1490.189351862027</v>
       </c>
       <c r="AD15" t="n">
-        <v>1109069.89985737</v>
+        <v>1204036.945607688</v>
       </c>
       <c r="AE15" t="n">
-        <v>1517478.365695621</v>
+        <v>1647416.467341574</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404878707631142e-06</v>
+        <v>2.025363639085389e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.63411458333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1372652.360267892</v>
+        <v>1490189.351862027</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2999.069745481577</v>
+        <v>3175.664958427498</v>
       </c>
       <c r="AB2" t="n">
-        <v>4103.459535387355</v>
+        <v>4345.084896570923</v>
       </c>
       <c r="AC2" t="n">
-        <v>3711.83111657146</v>
+        <v>3930.396092406983</v>
       </c>
       <c r="AD2" t="n">
-        <v>2999069.745481577</v>
+        <v>3175664.958427498</v>
       </c>
       <c r="AE2" t="n">
-        <v>4103459.535387354</v>
+        <v>4345084.896570923</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.900722979483123e-07</v>
+        <v>1.156636122503793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.79166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3711831.11657146</v>
+        <v>3930396.092406983</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1653.005830378625</v>
+        <v>1770.849760148667</v>
       </c>
       <c r="AB3" t="n">
-        <v>2261.715502594449</v>
+        <v>2422.954766213083</v>
       </c>
       <c r="AC3" t="n">
-        <v>2045.86054936448</v>
+        <v>2191.711363964077</v>
       </c>
       <c r="AD3" t="n">
-        <v>1653005.830378625</v>
+        <v>1770849.760148667</v>
       </c>
       <c r="AE3" t="n">
-        <v>2261715.50259445</v>
+        <v>2422954.766213083</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135946246475562e-06</v>
+        <v>1.662982571731921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.67903645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2045860.549364479</v>
+        <v>2191711.363964078</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1379.891039085483</v>
+        <v>1489.23220444595</v>
       </c>
       <c r="AB4" t="n">
-        <v>1888.027796172955</v>
+        <v>2037.633202410916</v>
       </c>
       <c r="AC4" t="n">
-        <v>1707.837073169862</v>
+        <v>1843.164349408979</v>
       </c>
       <c r="AD4" t="n">
-        <v>1379891.039085483</v>
+        <v>1489232.20444595</v>
       </c>
       <c r="AE4" t="n">
-        <v>1888027.796172955</v>
+        <v>2037633.202410916</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.264695191850269e-06</v>
+        <v>1.851466184359984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.86002604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1707837.073169862</v>
+        <v>1843164.349408979</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1255.66619453895</v>
+        <v>1356.675277198986</v>
       </c>
       <c r="AB5" t="n">
-        <v>1718.057883451035</v>
+        <v>1856.26296655272</v>
       </c>
       <c r="AC5" t="n">
-        <v>1554.088850363852</v>
+        <v>1679.103834306364</v>
       </c>
       <c r="AD5" t="n">
-        <v>1255666.19453895</v>
+        <v>1356675.277198986</v>
       </c>
       <c r="AE5" t="n">
-        <v>1718057.883451035</v>
+        <v>1856262.96655272</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.333174563396156e-06</v>
+        <v>1.951717408180912e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.583984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1554088.850363852</v>
+        <v>1679103.834306364</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1179.596859645513</v>
+        <v>1280.520601450977</v>
       </c>
       <c r="AB6" t="n">
-        <v>1613.97646350763</v>
+        <v>1752.064779487117</v>
       </c>
       <c r="AC6" t="n">
-        <v>1459.940815060654</v>
+        <v>1584.850175971229</v>
       </c>
       <c r="AD6" t="n">
-        <v>1179596.859645513</v>
+        <v>1280520.601450977</v>
       </c>
       <c r="AE6" t="n">
-        <v>1613976.46350763</v>
+        <v>1752064.779487117</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.373161107571046e-06</v>
+        <v>2.010256204601031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.89713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1459940.815060654</v>
+        <v>1584850.175971228</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1124.590733920586</v>
+        <v>1217.0971416796</v>
       </c>
       <c r="AB7" t="n">
-        <v>1538.714655591787</v>
+        <v>1665.286003782349</v>
       </c>
       <c r="AC7" t="n">
-        <v>1391.861888461689</v>
+        <v>1506.353444824947</v>
       </c>
       <c r="AD7" t="n">
-        <v>1124590.733920587</v>
+        <v>1217097.1416796</v>
       </c>
       <c r="AE7" t="n">
-        <v>1538714.655591787</v>
+        <v>1665286.003782349</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.403102722774466e-06</v>
+        <v>2.054089602886627e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.40885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1391861.888461689</v>
+        <v>1506353.444824947</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1099.076643886993</v>
+        <v>1191.583051646006</v>
       </c>
       <c r="AB8" t="n">
-        <v>1503.805152005612</v>
+        <v>1630.376500196174</v>
       </c>
       <c r="AC8" t="n">
-        <v>1360.284098901982</v>
+        <v>1474.77565526524</v>
       </c>
       <c r="AD8" t="n">
-        <v>1099076.643886993</v>
+        <v>1191583.051646006</v>
       </c>
       <c r="AE8" t="n">
-        <v>1503805.152005612</v>
+        <v>1630376.500196174</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410829591214059e-06</v>
+        <v>2.065401447605491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.28515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1360284.098901982</v>
+        <v>1474775.65526524</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1034.31810920208</v>
+        <v>1135.156510152973</v>
       </c>
       <c r="AB9" t="n">
-        <v>1415.199667904797</v>
+        <v>1553.171216762087</v>
       </c>
       <c r="AC9" t="n">
-        <v>1280.134997845171</v>
+        <v>1404.938735723806</v>
       </c>
       <c r="AD9" t="n">
-        <v>1034318.10920208</v>
+        <v>1135156.510152973</v>
       </c>
       <c r="AE9" t="n">
-        <v>1415199.667904797</v>
+        <v>1553171.216762087</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.437680459041642e-06</v>
+        <v>2.104710108003541e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.86848958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1280134.997845171</v>
+        <v>1404938.735723806</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1005.054985985187</v>
+        <v>1097.64664509022</v>
       </c>
       <c r="AB10" t="n">
-        <v>1375.160571721562</v>
+        <v>1501.848564564774</v>
       </c>
       <c r="AC10" t="n">
-        <v>1243.91717680644</v>
+        <v>1358.51424542041</v>
       </c>
       <c r="AD10" t="n">
-        <v>1005054.985985187</v>
+        <v>1097646.64509022</v>
       </c>
       <c r="AE10" t="n">
-        <v>1375160.571721562</v>
+        <v>1501848.564564774</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.447918559724101e-06</v>
+        <v>2.119698302256035e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.71549479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1243917.17680644</v>
+        <v>1358514.24542041</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1006.386985396503</v>
+        <v>1098.978644501536</v>
       </c>
       <c r="AB11" t="n">
-        <v>1376.983072079792</v>
+        <v>1503.671064923003</v>
       </c>
       <c r="AC11" t="n">
-        <v>1245.565740288375</v>
+        <v>1360.162808902345</v>
       </c>
       <c r="AD11" t="n">
-        <v>1006386.985396503</v>
+        <v>1098978.644501536</v>
       </c>
       <c r="AE11" t="n">
-        <v>1376983.072079791</v>
+        <v>1503671.064923003</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.449367347556525e-06</v>
+        <v>2.121819273140822e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1245565.740288375</v>
+        <v>1360162.808902345</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.017733087396</v>
+        <v>1317.35638239185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1643.285447573053</v>
+        <v>1802.465120050382</v>
       </c>
       <c r="AC2" t="n">
-        <v>1486.452590822292</v>
+        <v>1630.440378768457</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201017.733087396</v>
+        <v>1317356.38239185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1643285.447573053</v>
+        <v>1802465.120050382</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.259359572513147e-06</v>
+        <v>1.948384705101002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.85807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1486452.590822292</v>
+        <v>1630440.378768457</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>861.7010670615961</v>
+        <v>954.7379396718823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1179.017415521751</v>
+        <v>1306.314569124283</v>
       </c>
       <c r="AC3" t="n">
-        <v>1066.49364814569</v>
+        <v>1181.641740071074</v>
       </c>
       <c r="AD3" t="n">
-        <v>861701.0670615961</v>
+        <v>954737.9396718823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1179017.415521751</v>
+        <v>1306314.569124283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503148306190916e-06</v>
+        <v>2.325555967654572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1066493.64814569</v>
+        <v>1181641.740071074</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>777.2042480240365</v>
+        <v>862.5591727546544</v>
       </c>
       <c r="AB4" t="n">
-        <v>1063.405139977997</v>
+        <v>1180.191513587944</v>
       </c>
       <c r="AC4" t="n">
-        <v>961.9152459169836</v>
+        <v>1067.555691940303</v>
       </c>
       <c r="AD4" t="n">
-        <v>777204.2480240365</v>
+        <v>862559.1727546543</v>
       </c>
       <c r="AE4" t="n">
-        <v>1063405.139977997</v>
+        <v>1180191.513587944</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>2.419431927344077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.43489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>961915.2459169836</v>
+        <v>1067555.691940303</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>782.2205261655298</v>
+        <v>867.5754508961477</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070.268633033761</v>
+        <v>1187.055006643709</v>
       </c>
       <c r="AC5" t="n">
-        <v>968.1236968284785</v>
+        <v>1073.764142851798</v>
       </c>
       <c r="AD5" t="n">
-        <v>782220.5261655299</v>
+        <v>867575.4508961476</v>
       </c>
       <c r="AE5" t="n">
-        <v>1070268.633033761</v>
+        <v>1187055.006643709</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56382605024953e-06</v>
+        <v>2.419431927344077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.43489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>968123.6968284785</v>
+        <v>1073764.142851798</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1694.661052416984</v>
+        <v>1822.833908404305</v>
       </c>
       <c r="AB2" t="n">
-        <v>2318.71001508603</v>
+        <v>2494.081771235208</v>
       </c>
       <c r="AC2" t="n">
-        <v>2097.415585576164</v>
+        <v>2256.05010745427</v>
       </c>
       <c r="AD2" t="n">
-        <v>1694661.052416984</v>
+        <v>1822833.908404305</v>
       </c>
       <c r="AE2" t="n">
-        <v>2318710.01508603</v>
+        <v>2494081.771235208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.070752015539338e-06</v>
+        <v>1.618221062778963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.34765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2097415.585576164</v>
+        <v>2256050.10745427</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1123.008834741036</v>
+        <v>1227.202545539144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1536.550231345859</v>
+        <v>1679.112663161931</v>
       </c>
       <c r="AC3" t="n">
-        <v>1389.904033828004</v>
+        <v>1518.860507239181</v>
       </c>
       <c r="AD3" t="n">
-        <v>1123008.834741036</v>
+        <v>1227202.545539144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1536550.231345859</v>
+        <v>1679112.663161931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.356560834708817e-06</v>
+        <v>2.050162207316593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.74283854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1389904.033828004</v>
+        <v>1518860.507239181</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>975.6164889024543</v>
+        <v>1063.852699040196</v>
       </c>
       <c r="AB4" t="n">
-        <v>1334.881521278136</v>
+        <v>1455.610196695452</v>
       </c>
       <c r="AC4" t="n">
-        <v>1207.482302405332</v>
+        <v>1316.688802484579</v>
       </c>
       <c r="AD4" t="n">
-        <v>975616.4889024543</v>
+        <v>1063852.699040196</v>
       </c>
       <c r="AE4" t="n">
-        <v>1334881.521278136</v>
+        <v>1455610.196695452</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458738518618252e-06</v>
+        <v>2.204582724718033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.0078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1207482.302405332</v>
+        <v>1316688.802484579</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>884.69246918997</v>
+        <v>972.84333847314</v>
       </c>
       <c r="AB5" t="n">
-        <v>1210.475266222868</v>
+        <v>1331.087174517985</v>
       </c>
       <c r="AC5" t="n">
-        <v>1094.949205727263</v>
+        <v>1204.050082774571</v>
       </c>
       <c r="AD5" t="n">
-        <v>884692.4691899699</v>
+        <v>972843.3384731399</v>
       </c>
       <c r="AE5" t="n">
-        <v>1210475.266222868</v>
+        <v>1331087.174517985</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513075188063532e-06</v>
+        <v>2.286701405515771e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.18098958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1094949.205727263</v>
+        <v>1204050.082774571</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>862.5229987894995</v>
+        <v>950.6738680726693</v>
       </c>
       <c r="AB6" t="n">
-        <v>1180.142018772937</v>
+        <v>1300.753927068055</v>
       </c>
       <c r="AC6" t="n">
-        <v>1067.510920840974</v>
+        <v>1176.611797888282</v>
       </c>
       <c r="AD6" t="n">
-        <v>862522.9987894995</v>
+        <v>950673.8680726693</v>
       </c>
       <c r="AE6" t="n">
-        <v>1180142.018772937</v>
+        <v>1300753.927068055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524210596602603e-06</v>
+        <v>2.303530281276977e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1067510.920840974</v>
+        <v>1176611.797888282</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>900.1172231641908</v>
+        <v>998.3817744470257</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.580095102515</v>
+        <v>1366.029989293735</v>
       </c>
       <c r="AC2" t="n">
-        <v>1114.03981935945</v>
+        <v>1235.658004350671</v>
       </c>
       <c r="AD2" t="n">
-        <v>900117.2231641908</v>
+        <v>998381.7744470257</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231580.095102515</v>
+        <v>1366029.989293735</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42189987591616e-06</v>
+        <v>2.247295677355027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1114039.81935945</v>
+        <v>1235658.004350671</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.9458963490304</v>
+        <v>805.0929138661342</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.7982253898305</v>
+        <v>1101.563642944257</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.524149142141</v>
+        <v>996.4319549159393</v>
       </c>
       <c r="AD3" t="n">
-        <v>721945.8963490303</v>
+        <v>805092.9138661341</v>
       </c>
       <c r="AE3" t="n">
-        <v>987798.2253898304</v>
+        <v>1101563.642944257</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583420896222152e-06</v>
+        <v>2.502577710136519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.01106770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>893524.149142141</v>
+        <v>996431.9549159392</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3292.111476547166</v>
+        <v>3470.069312248414</v>
       </c>
       <c r="AB2" t="n">
-        <v>4504.412159920073</v>
+        <v>4747.901921672153</v>
       </c>
       <c r="AC2" t="n">
-        <v>4074.517385359303</v>
+        <v>4294.768825989782</v>
       </c>
       <c r="AD2" t="n">
-        <v>3292111.476547166</v>
+        <v>3470069.312248413</v>
       </c>
       <c r="AE2" t="n">
-        <v>4504412.159920073</v>
+        <v>4747901.921672152</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.504309364103022e-07</v>
+        <v>1.094042972965332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.52018229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4074517.385359303</v>
+        <v>4294768.825989782</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1751.75592443602</v>
+        <v>1870.309230224164</v>
       </c>
       <c r="AB3" t="n">
-        <v>2396.829737830458</v>
+        <v>2559.039601012519</v>
       </c>
       <c r="AC3" t="n">
-        <v>2168.079671623584</v>
+        <v>2314.808453126521</v>
       </c>
       <c r="AD3" t="n">
-        <v>1751755.92443602</v>
+        <v>1870309.230224164</v>
       </c>
       <c r="AE3" t="n">
-        <v>2396829.737830458</v>
+        <v>2559039.601012519</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104588393644756e-06</v>
+        <v>1.610364273982134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.20963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2168079.671623583</v>
+        <v>2314808.453126521</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1454.537031310827</v>
+        <v>1564.530813591959</v>
       </c>
       <c r="AB4" t="n">
-        <v>1990.161735884429</v>
+        <v>2140.660081384669</v>
       </c>
       <c r="AC4" t="n">
-        <v>1800.223493021158</v>
+        <v>1936.35848765261</v>
       </c>
       <c r="AD4" t="n">
-        <v>1454537.031310827</v>
+        <v>1564530.813591959</v>
       </c>
       <c r="AE4" t="n">
-        <v>1990161.735884429</v>
+        <v>2140660.08138467</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.237253862760149e-06</v>
+        <v>1.803775442417077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.185546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1800223.493021158</v>
+        <v>1936358.48765261</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1316.042678716865</v>
+        <v>1426.036371489446</v>
       </c>
       <c r="AB5" t="n">
-        <v>1800.667652725752</v>
+        <v>1951.165875756444</v>
       </c>
       <c r="AC5" t="n">
-        <v>1628.814459202529</v>
+        <v>1764.949343052755</v>
       </c>
       <c r="AD5" t="n">
-        <v>1316042.678716865</v>
+        <v>1426036.371489446</v>
       </c>
       <c r="AE5" t="n">
-        <v>1800667.652725752</v>
+        <v>1951165.875756444</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306266707805025e-06</v>
+        <v>1.904388322966568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1628814.459202529</v>
+        <v>1764949.343052755</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1240.725699333718</v>
+        <v>1333.941798019112</v>
       </c>
       <c r="AB6" t="n">
-        <v>1697.615638783107</v>
+        <v>1825.158017408499</v>
       </c>
       <c r="AC6" t="n">
-        <v>1535.59758483616</v>
+        <v>1650.967497852397</v>
       </c>
       <c r="AD6" t="n">
-        <v>1240725.699333718</v>
+        <v>1333941.798019112</v>
       </c>
       <c r="AE6" t="n">
-        <v>1697615.638783107</v>
+        <v>1825158.017408499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>1.968021434659449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.08268229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1535597.58483616</v>
+        <v>1650967.497852397</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1177.36537980529</v>
+        <v>1278.970230780002</v>
       </c>
       <c r="AB7" t="n">
-        <v>1610.923254344294</v>
+        <v>1749.943493937562</v>
       </c>
       <c r="AC7" t="n">
-        <v>1457.178999894662</v>
+        <v>1582.93134293728</v>
       </c>
       <c r="AD7" t="n">
-        <v>1177365.37980529</v>
+        <v>1278970.230780002</v>
       </c>
       <c r="AE7" t="n">
-        <v>1610923.254344294</v>
+        <v>1749943.493937562</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37968259150741e-06</v>
+        <v>2.011420333204375e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.58138020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1457178.999894662</v>
+        <v>1582931.34293728</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1118.793302924721</v>
+        <v>1211.924060755544</v>
       </c>
       <c r="AB8" t="n">
-        <v>1530.782354738639</v>
+        <v>1658.207966241833</v>
       </c>
       <c r="AC8" t="n">
-        <v>1384.686635268911</v>
+        <v>1499.950925253209</v>
       </c>
       <c r="AD8" t="n">
-        <v>1118793.302924721</v>
+        <v>1211924.060755544</v>
       </c>
       <c r="AE8" t="n">
-        <v>1530782.354738639</v>
+        <v>1658207.966241833</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.411556762658511e-06</v>
+        <v>2.057889250295887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.07356770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1384686.635268911</v>
+        <v>1499950.925253209</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1097.741041494526</v>
+        <v>1190.871799325349</v>
       </c>
       <c r="AB9" t="n">
-        <v>1501.97772188962</v>
+        <v>1629.403333392814</v>
       </c>
       <c r="AC9" t="n">
-        <v>1358.631076151446</v>
+        <v>1473.895366135745</v>
       </c>
       <c r="AD9" t="n">
-        <v>1097741.041494526</v>
+        <v>1190871.799325349</v>
       </c>
       <c r="AE9" t="n">
-        <v>1501977.72188962</v>
+        <v>1629403.333392814</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.414906900767486e-06</v>
+        <v>2.062773370710911e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.021484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1358631.076151446</v>
+        <v>1473895.366135745</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1052.418617931097</v>
+        <v>1153.938128051237</v>
       </c>
       <c r="AB10" t="n">
-        <v>1439.965582485925</v>
+        <v>1578.869054956995</v>
       </c>
       <c r="AC10" t="n">
-        <v>1302.537288297856</v>
+        <v>1428.184008308535</v>
       </c>
       <c r="AD10" t="n">
-        <v>1052418.617931097</v>
+        <v>1153938.128051237</v>
       </c>
       <c r="AE10" t="n">
-        <v>1439965.582485925</v>
+        <v>1578869.054956995</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.429743226678659e-06</v>
+        <v>2.084403046834588e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.79361979166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1302537.288297856</v>
+        <v>1428184.008308535</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1028.534803760312</v>
+        <v>1121.750812937156</v>
       </c>
       <c r="AB11" t="n">
-        <v>1407.286694257942</v>
+        <v>1534.828950413785</v>
       </c>
       <c r="AC11" t="n">
-        <v>1272.977227297243</v>
+        <v>1388.347029532254</v>
       </c>
       <c r="AD11" t="n">
-        <v>1028534.803760312</v>
+        <v>1121750.812937156</v>
       </c>
       <c r="AE11" t="n">
-        <v>1407286.694257942</v>
+        <v>1534828.950413785</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437496403445143e-06</v>
+        <v>2.095706296937929e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.67317708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1272977.227297243</v>
+        <v>1388347.029532254</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1032.380506928909</v>
+        <v>1125.596516105753</v>
       </c>
       <c r="AB12" t="n">
-        <v>1412.548554993666</v>
+        <v>1540.090811149509</v>
       </c>
       <c r="AC12" t="n">
-        <v>1277.736903429418</v>
+        <v>1393.106705664429</v>
       </c>
       <c r="AD12" t="n">
-        <v>1032380.506928909</v>
+        <v>1125596.516105753</v>
       </c>
       <c r="AE12" t="n">
-        <v>1412548.554993666</v>
+        <v>1540090.811149509</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.436252066433238e-06</v>
+        <v>2.093892195069491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.69596354166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1277736.903429418</v>
+        <v>1393106.705664429</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.6591146552923</v>
+        <v>840.062887353698</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.507208596043</v>
+        <v>1149.411103436289</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.3977486879726</v>
+        <v>1039.712920932945</v>
       </c>
       <c r="AD2" t="n">
-        <v>743659.1146552924</v>
+        <v>840062.887353698</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017507.208596043</v>
+        <v>1149411.103436289</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526626540011021e-06</v>
+        <v>2.446014318127034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>920397.7486879725</v>
+        <v>1039712.920932945</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>688.5419959646257</v>
+        <v>777.7663397371513</v>
       </c>
       <c r="AB3" t="n">
-        <v>942.0935352078099</v>
+        <v>1064.174218657616</v>
       </c>
       <c r="AC3" t="n">
-        <v>852.1814504441569</v>
+        <v>962.6109248068292</v>
       </c>
       <c r="AD3" t="n">
-        <v>688541.9959646257</v>
+        <v>777766.3397371513</v>
       </c>
       <c r="AE3" t="n">
-        <v>942093.5352078099</v>
+        <v>1064174.218657616</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584933203841261e-06</v>
+        <v>2.539435289683023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.52864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>852181.4504441569</v>
+        <v>962610.9248068292</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2277.618480950367</v>
+        <v>2425.645719545287</v>
       </c>
       <c r="AB2" t="n">
-        <v>3116.338087072226</v>
+        <v>3318.875485418675</v>
       </c>
       <c r="AC2" t="n">
-        <v>2818.91915384991</v>
+        <v>3002.12666716119</v>
       </c>
       <c r="AD2" t="n">
-        <v>2277618.480950367</v>
+        <v>2425645.719545287</v>
       </c>
       <c r="AE2" t="n">
-        <v>3116338.087072226</v>
+        <v>3318875.485418675</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.187073435522514e-07</v>
+        <v>1.36413634922645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2818919.15384991</v>
+        <v>3002126.66716119</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1384.889310927845</v>
+        <v>1491.835826267472</v>
       </c>
       <c r="AB3" t="n">
-        <v>1894.866652215866</v>
+        <v>2041.19559265081</v>
       </c>
       <c r="AC3" t="n">
-        <v>1714.023238390432</v>
+        <v>1846.386750124223</v>
       </c>
       <c r="AD3" t="n">
-        <v>1384889.310927845</v>
+        <v>1491835.826267472</v>
       </c>
       <c r="AE3" t="n">
-        <v>1894866.652215865</v>
+        <v>2041195.59265081</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.238642797356464e-06</v>
+        <v>1.839190331328165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.15234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1714023.238390432</v>
+        <v>1846386.750124224</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1177.04781335122</v>
+        <v>1283.908898327725</v>
       </c>
       <c r="AB4" t="n">
-        <v>1610.488745911793</v>
+        <v>1756.700796754992</v>
       </c>
       <c r="AC4" t="n">
-        <v>1456.785960337122</v>
+        <v>1589.043738257748</v>
       </c>
       <c r="AD4" t="n">
-        <v>1177047.81335122</v>
+        <v>1283908.898327725</v>
       </c>
       <c r="AE4" t="n">
-        <v>1610488.745911793</v>
+        <v>1756700.796754992</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353481215300495e-06</v>
+        <v>2.009707374981471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1456785.960337122</v>
+        <v>1589043.738257748</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1075.154328379801</v>
+        <v>1173.867541388904</v>
       </c>
       <c r="AB5" t="n">
-        <v>1471.073584550597</v>
+        <v>1606.137357509255</v>
       </c>
       <c r="AC5" t="n">
-        <v>1330.67638630583</v>
+        <v>1452.84986233651</v>
       </c>
       <c r="AD5" t="n">
-        <v>1075154.328379801</v>
+        <v>1173867.541388904</v>
       </c>
       <c r="AE5" t="n">
-        <v>1471073.584550597</v>
+        <v>1606137.357509254</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.413686798364741e-06</v>
+        <v>2.099103225423629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.91341145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1330676.38630583</v>
+        <v>1452849.86233651</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1010.316988366476</v>
+        <v>1100.797078062158</v>
       </c>
       <c r="AB6" t="n">
-        <v>1382.360275522803</v>
+        <v>1506.159125944272</v>
       </c>
       <c r="AC6" t="n">
-        <v>1250.429750981738</v>
+        <v>1362.41341287176</v>
       </c>
       <c r="AD6" t="n">
-        <v>1010316.988366476</v>
+        <v>1100797.078062158</v>
       </c>
       <c r="AE6" t="n">
-        <v>1382360.275522803</v>
+        <v>1506159.125944272</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452098955493333e-06</v>
+        <v>2.156139255623088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.30794270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1250429.750981738</v>
+        <v>1362413.41287176</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>968.3784936600464</v>
+        <v>1058.858583355728</v>
       </c>
       <c r="AB7" t="n">
-        <v>1324.97817686966</v>
+        <v>1448.777027291128</v>
       </c>
       <c r="AC7" t="n">
-        <v>1198.52411928777</v>
+        <v>1310.507781177791</v>
       </c>
       <c r="AD7" t="n">
-        <v>968378.4936600464</v>
+        <v>1058858.583355728</v>
       </c>
       <c r="AE7" t="n">
-        <v>1324978.17686966</v>
+        <v>1448777.027291128</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468021093163216e-06</v>
+        <v>2.179781133425973e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.06705729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1198524.11928777</v>
+        <v>1310507.781177791</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>928.3199999550833</v>
+        <v>1026.947872109615</v>
       </c>
       <c r="AB8" t="n">
-        <v>1270.168378526514</v>
+        <v>1405.115384362974</v>
       </c>
       <c r="AC8" t="n">
-        <v>1148.945291172458</v>
+        <v>1271.013144171199</v>
       </c>
       <c r="AD8" t="n">
-        <v>928319.9999550832</v>
+        <v>1026947.872109615</v>
       </c>
       <c r="AE8" t="n">
-        <v>1270168.378526514</v>
+        <v>1405115.384362974</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.486132524762708e-06</v>
+        <v>2.206673769426755e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1148945.291172458</v>
+        <v>1271013.144171199</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>932.7940722412206</v>
+        <v>1031.421944395752</v>
       </c>
       <c r="AB9" t="n">
-        <v>1276.290001610545</v>
+        <v>1411.237007447006</v>
       </c>
       <c r="AC9" t="n">
-        <v>1154.482675141102</v>
+        <v>1276.550528139843</v>
       </c>
       <c r="AD9" t="n">
-        <v>932794.0722412206</v>
+        <v>1031421.944395752</v>
       </c>
       <c r="AE9" t="n">
-        <v>1276290.001610545</v>
+        <v>1411237.007447006</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.486033011402272e-06</v>
+        <v>2.206526007690486e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.80013020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1154482.675141102</v>
+        <v>1276550.528139843</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2743.093574743791</v>
+        <v>2901.819939709057</v>
       </c>
       <c r="AB2" t="n">
-        <v>3753.221645712253</v>
+        <v>3970.398060770754</v>
       </c>
       <c r="AC2" t="n">
-        <v>3395.019439524997</v>
+        <v>3591.46884233932</v>
       </c>
       <c r="AD2" t="n">
-        <v>2743093.574743791</v>
+        <v>2901819.939709057</v>
       </c>
       <c r="AE2" t="n">
-        <v>3753221.645712253</v>
+        <v>3970398.060770754</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.307278369972597e-07</v>
+        <v>1.221537500126566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.20638020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3395019.439524997</v>
+        <v>3591468.84233932</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1563.600921433198</v>
+        <v>1680.44941493566</v>
       </c>
       <c r="AB3" t="n">
-        <v>2139.387761909106</v>
+        <v>2299.265025710886</v>
       </c>
       <c r="AC3" t="n">
-        <v>1935.207596562083</v>
+        <v>2079.82639869577</v>
       </c>
       <c r="AD3" t="n">
-        <v>1563600.921433198</v>
+        <v>1680449.41493566</v>
       </c>
       <c r="AE3" t="n">
-        <v>2139387.761909106</v>
+        <v>2299265.025710886</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169161677633115e-06</v>
+        <v>1.71918499577672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.14518229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1935207.596562083</v>
+        <v>2079826.39869577</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1313.749235735865</v>
+        <v>1422.3244744627</v>
       </c>
       <c r="AB4" t="n">
-        <v>1797.529662859583</v>
+        <v>1946.087094487111</v>
       </c>
       <c r="AC4" t="n">
-        <v>1625.975954684991</v>
+        <v>1760.355273539652</v>
       </c>
       <c r="AD4" t="n">
-        <v>1313749.235735865</v>
+        <v>1422324.4744627</v>
       </c>
       <c r="AE4" t="n">
-        <v>1797529.662859583</v>
+        <v>1946087.094487111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.293380840113691e-06</v>
+        <v>1.901842129011608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.541015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1625975.954684991</v>
+        <v>1760355.273539652</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200.811589903214</v>
+        <v>1300.943071162382</v>
       </c>
       <c r="AB5" t="n">
-        <v>1643.003393374061</v>
+        <v>1780.007703522037</v>
       </c>
       <c r="AC5" t="n">
-        <v>1486.197455480185</v>
+        <v>1610.126266554396</v>
       </c>
       <c r="AD5" t="n">
-        <v>1200811.589903214</v>
+        <v>1300943.071162382</v>
       </c>
       <c r="AE5" t="n">
-        <v>1643003.393374061</v>
+        <v>1780007.703522037</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.357732996500803e-06</v>
+        <v>1.99646827338761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.37890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1486197.455480185</v>
+        <v>1610126.266554396</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1123.063321742777</v>
+        <v>1223.280054347965</v>
       </c>
       <c r="AB6" t="n">
-        <v>1536.624782865437</v>
+        <v>1673.745737666063</v>
       </c>
       <c r="AC6" t="n">
-        <v>1389.971470255187</v>
+        <v>1514.00579358011</v>
       </c>
       <c r="AD6" t="n">
-        <v>1123063.321742777</v>
+        <v>1223280.054347965</v>
       </c>
       <c r="AE6" t="n">
-        <v>1536624.782865437</v>
+        <v>1673745.737666063</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.398976878548906e-06</v>
+        <v>2.057115029555866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.68880208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1389971.470255187</v>
+        <v>1514005.79358011</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1067.930979218959</v>
+        <v>1159.789295211052</v>
       </c>
       <c r="AB7" t="n">
-        <v>1461.190279557059</v>
+        <v>1586.874880000331</v>
       </c>
       <c r="AC7" t="n">
-        <v>1321.73633006957</v>
+        <v>1435.425768645981</v>
       </c>
       <c r="AD7" t="n">
-        <v>1067930.979218959</v>
+        <v>1159789.295211052</v>
       </c>
       <c r="AE7" t="n">
-        <v>1461190.279557059</v>
+        <v>1586874.880000331</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.428227858724866e-06</v>
+        <v>2.100126913363139e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.22330729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1321736.33006957</v>
+        <v>1435425.768645981</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1023.902495319577</v>
+        <v>1124.033887070194</v>
       </c>
       <c r="AB8" t="n">
-        <v>1400.948565486303</v>
+        <v>1537.952753164731</v>
       </c>
       <c r="AC8" t="n">
-        <v>1267.24400063995</v>
+        <v>1391.172700932934</v>
       </c>
       <c r="AD8" t="n">
-        <v>1023902.495319577</v>
+        <v>1124033.887070194</v>
       </c>
       <c r="AE8" t="n">
-        <v>1400948.565486303</v>
+        <v>1537952.753164731</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442950852080099e-06</v>
+        <v>2.1217762282128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.99544270833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1267244.00063995</v>
+        <v>1391172.700932934</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>984.569252757614</v>
+        <v>1076.512820095728</v>
       </c>
       <c r="AB9" t="n">
-        <v>1347.131087752831</v>
+        <v>1472.932332848753</v>
       </c>
       <c r="AC9" t="n">
-        <v>1218.562787448057</v>
+        <v>1332.35773827518</v>
       </c>
       <c r="AD9" t="n">
-        <v>984569.252757614</v>
+        <v>1076512.820095728</v>
       </c>
       <c r="AE9" t="n">
-        <v>1347131.087752831</v>
+        <v>1472932.332848753</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.458843884642371e-06</v>
+        <v>2.145146018414752e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.7578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1218562.787448057</v>
+        <v>1332357.73827518</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>981.7630682620967</v>
+        <v>1073.706635600211</v>
       </c>
       <c r="AB10" t="n">
-        <v>1343.291542325942</v>
+        <v>1469.092787421864</v>
       </c>
       <c r="AC10" t="n">
-        <v>1215.089682847874</v>
+        <v>1328.884633674997</v>
       </c>
       <c r="AD10" t="n">
-        <v>981763.0682620967</v>
+        <v>1073706.635600211</v>
       </c>
       <c r="AE10" t="n">
-        <v>1343291.542325942</v>
+        <v>1469092.787421864</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459623910780397e-06</v>
+        <v>2.146293001982946e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1215089.682847874</v>
+        <v>1328884.633674997</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3948.426838134582</v>
+        <v>4145.642135725561</v>
       </c>
       <c r="AB2" t="n">
-        <v>5402.411792234268</v>
+        <v>5672.250462923137</v>
       </c>
       <c r="AC2" t="n">
-        <v>4886.813193115797</v>
+        <v>5130.898839795064</v>
       </c>
       <c r="AD2" t="n">
-        <v>3948426.838134582</v>
+        <v>4145642.135725561</v>
       </c>
       <c r="AE2" t="n">
-        <v>5402411.792234267</v>
+        <v>5672250.462923137</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776093161813859e-07</v>
+        <v>9.803465289116003e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.21158854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4886813.193115797</v>
+        <v>5130898.839795064</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1949.67860127171</v>
+        <v>2078.237937196055</v>
       </c>
       <c r="AB3" t="n">
-        <v>2667.636276009296</v>
+        <v>2843.536831058601</v>
       </c>
       <c r="AC3" t="n">
-        <v>2413.040813877996</v>
+        <v>2572.153666831376</v>
       </c>
       <c r="AD3" t="n">
-        <v>1949678.60127171</v>
+        <v>2078237.937196055</v>
       </c>
       <c r="AE3" t="n">
-        <v>2667636.276009296</v>
+        <v>2843536.831058601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045212370209788e-06</v>
+        <v>1.512184520846144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.30989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2413040.813877996</v>
+        <v>2572153.666831376</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1589.80982622736</v>
+        <v>1709.787077434826</v>
       </c>
       <c r="AB4" t="n">
-        <v>2175.247941703754</v>
+        <v>2339.406109828568</v>
       </c>
       <c r="AC4" t="n">
-        <v>1967.645331127208</v>
+        <v>2116.136474083626</v>
       </c>
       <c r="AD4" t="n">
-        <v>1589809.82622736</v>
+        <v>1709787.077434826</v>
       </c>
       <c r="AE4" t="n">
-        <v>2175247.941703754</v>
+        <v>2339406.109828569</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.184404617242047e-06</v>
+        <v>1.713564036993401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.86588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1967645.331127208</v>
+        <v>2116136.474083626</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1440.970712684496</v>
+        <v>1543.869403838426</v>
       </c>
       <c r="AB5" t="n">
-        <v>1971.599700236146</v>
+        <v>2112.39022904282</v>
       </c>
       <c r="AC5" t="n">
-        <v>1783.432992003167</v>
+        <v>1910.786670341279</v>
       </c>
       <c r="AD5" t="n">
-        <v>1440970.712684497</v>
+        <v>1543869.403838426</v>
       </c>
       <c r="AE5" t="n">
-        <v>1971599.700236146</v>
+        <v>2112390.22904282</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257906405566723e-06</v>
+        <v>1.819904403532285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.35546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1783432.992003167</v>
+        <v>1910786.670341279</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1347.130172265729</v>
+        <v>1449.943522565087</v>
       </c>
       <c r="AB6" t="n">
-        <v>1843.202932882728</v>
+        <v>1983.876694567203</v>
       </c>
       <c r="AC6" t="n">
-        <v>1667.290231919964</v>
+        <v>1794.538287226138</v>
       </c>
       <c r="AD6" t="n">
-        <v>1347130.172265729</v>
+        <v>1449943.522565087</v>
       </c>
       <c r="AE6" t="n">
-        <v>1843202.932882728</v>
+        <v>1983876.694567204</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30533905769942e-06</v>
+        <v>1.888528660556097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.47005208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1667290.231919964</v>
+        <v>1794538.287226138</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1280.706891475666</v>
+        <v>1383.605493121044</v>
       </c>
       <c r="AB7" t="n">
-        <v>1752.319669717431</v>
+        <v>1893.110076054556</v>
       </c>
       <c r="AC7" t="n">
-        <v>1585.080739835702</v>
+        <v>1712.434307392588</v>
       </c>
       <c r="AD7" t="n">
-        <v>1280706.891475666</v>
+        <v>1383605.493121044</v>
       </c>
       <c r="AE7" t="n">
-        <v>1752319.669717432</v>
+        <v>1893110.076054557</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335925589332607e-06</v>
+        <v>1.932780413597245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.93294270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1585080.739835702</v>
+        <v>1712434.307392588</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1233.746603841615</v>
+        <v>1336.645205486993</v>
       </c>
       <c r="AB8" t="n">
-        <v>1688.066532434849</v>
+        <v>1828.856938771974</v>
       </c>
       <c r="AC8" t="n">
-        <v>1526.959831795525</v>
+        <v>1654.313399352411</v>
       </c>
       <c r="AD8" t="n">
-        <v>1233746.603841615</v>
+        <v>1336645.205486993</v>
       </c>
       <c r="AE8" t="n">
-        <v>1688066.532434849</v>
+        <v>1828856.938771974</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359830140209006e-06</v>
+        <v>1.967364860589404e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.529296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1526959.831795525</v>
+        <v>1654313.399352411</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1208.249002782047</v>
+        <v>1302.565698727647</v>
       </c>
       <c r="AB9" t="n">
-        <v>1653.179589790378</v>
+        <v>1782.227854142108</v>
       </c>
       <c r="AC9" t="n">
-        <v>1495.402449992911</v>
+        <v>1612.134529115288</v>
       </c>
       <c r="AD9" t="n">
-        <v>1208249.002782047</v>
+        <v>1302565.698727647</v>
       </c>
       <c r="AE9" t="n">
-        <v>1653179.589790378</v>
+        <v>1782227.854142108</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370558954381878e-06</v>
+        <v>1.982887013963838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.353515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1495402.449992911</v>
+        <v>1612134.529115288</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1167.058658474529</v>
+        <v>1261.37535442013</v>
       </c>
       <c r="AB10" t="n">
-        <v>1596.821143519093</v>
+        <v>1725.869407870823</v>
       </c>
       <c r="AC10" t="n">
-        <v>1444.422774734181</v>
+        <v>1561.154853856558</v>
       </c>
       <c r="AD10" t="n">
-        <v>1167058.658474529</v>
+        <v>1261375.35442013</v>
       </c>
       <c r="AE10" t="n">
-        <v>1596821.143519093</v>
+        <v>1725869.407870823</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.389099098171841e-06</v>
+        <v>2.00971038426878e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.05403645833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1444422.774734181</v>
+        <v>1561154.853856558</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1121.904572241832</v>
+        <v>1224.717833032639</v>
       </c>
       <c r="AB11" t="n">
-        <v>1535.039330677825</v>
+        <v>1675.712969892752</v>
       </c>
       <c r="AC11" t="n">
-        <v>1388.537331399164</v>
+        <v>1515.785275924112</v>
       </c>
       <c r="AD11" t="n">
-        <v>1121904.572241832</v>
+        <v>1224717.833032639</v>
       </c>
       <c r="AE11" t="n">
-        <v>1535039.330677825</v>
+        <v>1675712.969892752</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.402368947280393e-06</v>
+        <v>2.028908837126633e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.845703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1388537.331399164</v>
+        <v>1515785.275924112</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1093.803473403697</v>
+        <v>1188.205420695318</v>
       </c>
       <c r="AB12" t="n">
-        <v>1496.590167514504</v>
+        <v>1625.755076518883</v>
       </c>
       <c r="AC12" t="n">
-        <v>1353.757702404411</v>
+        <v>1470.595293777501</v>
       </c>
       <c r="AD12" t="n">
-        <v>1093803.473403697</v>
+        <v>1188205.420695318</v>
       </c>
       <c r="AE12" t="n">
-        <v>1496590.167514504</v>
+        <v>1625755.076518883</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.411497850567837e-06</v>
+        <v>2.042116283418914e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.70247395833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1353757.702404412</v>
+        <v>1470595.293777501</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1078.604366568432</v>
+        <v>1173.006313860053</v>
       </c>
       <c r="AB13" t="n">
-        <v>1475.794079005225</v>
+        <v>1604.958988009605</v>
       </c>
       <c r="AC13" t="n">
-        <v>1334.946363394964</v>
+        <v>1451.783954768054</v>
       </c>
       <c r="AD13" t="n">
-        <v>1078604.366568432</v>
+        <v>1173006.313860053</v>
       </c>
       <c r="AE13" t="n">
-        <v>1475794.079005225</v>
+        <v>1604958.988009605</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.416015246009046e-06</v>
+        <v>2.048651926944991e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.63411458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1334946.363394964</v>
+        <v>1451783.954768054</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1081.746841767606</v>
+        <v>1176.148789059227</v>
       </c>
       <c r="AB14" t="n">
-        <v>1480.093752208956</v>
+        <v>1609.258661213335</v>
       </c>
       <c r="AC14" t="n">
-        <v>1338.835681822761</v>
+        <v>1455.67327319585</v>
       </c>
       <c r="AD14" t="n">
-        <v>1081746.841767606</v>
+        <v>1176148.789059227</v>
       </c>
       <c r="AE14" t="n">
-        <v>1480093.752208956</v>
+        <v>1609258.661213335</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.415638796388945e-06</v>
+        <v>2.048107289984485e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1338835.681822761</v>
+        <v>1455673.27319585</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1874.648713225469</v>
+        <v>2012.19212933528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2564.977073099383</v>
+        <v>2753.170043008087</v>
       </c>
       <c r="AC2" t="n">
-        <v>2320.179261210709</v>
+        <v>2490.411358201819</v>
       </c>
       <c r="AD2" t="n">
-        <v>1874648.713225469</v>
+        <v>2012192.12933528</v>
       </c>
       <c r="AE2" t="n">
-        <v>2564977.073099383</v>
+        <v>2753170.043008087</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.016625032968519e-06</v>
+        <v>1.526650170251458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.60091145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2320179.261210709</v>
+        <v>2490411.358201819</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1212.777149188585</v>
+        <v>1317.852077019578</v>
       </c>
       <c r="AB3" t="n">
-        <v>1659.375199471524</v>
+        <v>1803.143351308544</v>
       </c>
       <c r="AC3" t="n">
-        <v>1501.006759381681</v>
+        <v>1631.053880587243</v>
       </c>
       <c r="AD3" t="n">
-        <v>1212777.149188585</v>
+        <v>1317852.077019578</v>
       </c>
       <c r="AE3" t="n">
-        <v>1659375.199471524</v>
+        <v>1803143.351308543</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.314841830321027e-06</v>
+        <v>1.974477746482456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.205078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1501006.759381681</v>
+        <v>1631053.880587243</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1043.8004551141</v>
+        <v>1140.779573711896</v>
       </c>
       <c r="AB4" t="n">
-        <v>1428.173831913201</v>
+        <v>1560.864940395461</v>
       </c>
       <c r="AC4" t="n">
-        <v>1291.870925849967</v>
+        <v>1411.89818117182</v>
       </c>
       <c r="AD4" t="n">
-        <v>1043800.4551141</v>
+        <v>1140779.573711896</v>
       </c>
       <c r="AE4" t="n">
-        <v>1428173.831913201</v>
+        <v>1560864.940395461</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421238741633205e-06</v>
+        <v>2.134252351180781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.3203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1291870.925849967</v>
+        <v>1411898.18117182</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>950.7990530657742</v>
+        <v>1039.767703284942</v>
       </c>
       <c r="AB5" t="n">
-        <v>1300.925210698393</v>
+        <v>1422.656042948092</v>
       </c>
       <c r="AC5" t="n">
-        <v>1176.766734449339</v>
+        <v>1286.879746919422</v>
       </c>
       <c r="AD5" t="n">
-        <v>950799.0530657741</v>
+        <v>1039767.703284942</v>
       </c>
       <c r="AE5" t="n">
-        <v>1300925.210698393</v>
+        <v>1422656.042948092</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477542561686444e-06</v>
+        <v>2.218802931466115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.431640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1176766.734449339</v>
+        <v>1286879.746919422</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>883.0404640878288</v>
+        <v>980.0194931770728</v>
       </c>
       <c r="AB6" t="n">
-        <v>1208.214919960797</v>
+        <v>1340.905905973508</v>
       </c>
       <c r="AC6" t="n">
-        <v>1092.904583740028</v>
+        <v>1212.931728280655</v>
       </c>
       <c r="AD6" t="n">
-        <v>883040.4640878288</v>
+        <v>980019.4931770728</v>
       </c>
       <c r="AE6" t="n">
-        <v>1208214.919960797</v>
+        <v>1340905.905973508</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511141586311342e-06</v>
+        <v>2.269258069791901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.93359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1092904.583740028</v>
+        <v>1212931.728280655</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>876.9835497698454</v>
+        <v>973.9625788590893</v>
       </c>
       <c r="AB7" t="n">
-        <v>1199.927582578731</v>
+        <v>1332.618568591443</v>
       </c>
       <c r="AC7" t="n">
-        <v>1085.408178206356</v>
+        <v>1205.435322746983</v>
       </c>
       <c r="AD7" t="n">
-        <v>876983.5497698453</v>
+        <v>973962.5788590893</v>
       </c>
       <c r="AE7" t="n">
-        <v>1199927.582578731</v>
+        <v>1332618.568591443</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.516334162844281e-06</v>
+        <v>2.277055682078614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.85872395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1085408.178206356</v>
+        <v>1205435.322746983</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1356.430112115894</v>
+        <v>1474.217651142529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1855.927520870114</v>
+        <v>2017.089628185833</v>
       </c>
       <c r="AC2" t="n">
-        <v>1678.800403088905</v>
+        <v>1824.58142507485</v>
       </c>
       <c r="AD2" t="n">
-        <v>1356430.112115894</v>
+        <v>1474217.651142529</v>
       </c>
       <c r="AE2" t="n">
-        <v>1855927.520870114</v>
+        <v>2017089.628185833</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190709968315026e-06</v>
+        <v>1.826247542764236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.994140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1678800.403088905</v>
+        <v>1824581.42507485</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.7362851260158</v>
+        <v>1050.722099313918</v>
       </c>
       <c r="AB3" t="n">
-        <v>1298.102840600317</v>
+        <v>1437.644330868782</v>
       </c>
       <c r="AC3" t="n">
-        <v>1174.213727392201</v>
+        <v>1300.437573677156</v>
       </c>
       <c r="AD3" t="n">
-        <v>948736.2851260158</v>
+        <v>1050722.099313918</v>
       </c>
       <c r="AE3" t="n">
-        <v>1298102.840600317</v>
+        <v>1437644.330868782</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.450021081927767e-06</v>
+        <v>2.223965120216676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1174213.727392201</v>
+        <v>1300437.573677156</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>822.0604870378899</v>
+        <v>908.4153476047542</v>
       </c>
       <c r="AB4" t="n">
-        <v>1124.779425114351</v>
+        <v>1242.933955049507</v>
       </c>
       <c r="AC4" t="n">
-        <v>1017.432055419275</v>
+        <v>1124.310082848344</v>
       </c>
       <c r="AD4" t="n">
-        <v>822060.4870378899</v>
+        <v>908415.3476047541</v>
       </c>
       <c r="AE4" t="n">
-        <v>1124779.425114351</v>
+        <v>1242933.955049507</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.541548890127274e-06</v>
+        <v>2.364345598474941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1017432.055419275</v>
+        <v>1124310.082848344</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>808.4011478350704</v>
+        <v>894.7560084019348</v>
       </c>
       <c r="AB5" t="n">
-        <v>1106.090114609538</v>
+        <v>1224.244644544694</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000.526426478429</v>
+        <v>1107.404453907498</v>
       </c>
       <c r="AD5" t="n">
-        <v>808401.1478350705</v>
+        <v>894756.0084019348</v>
       </c>
       <c r="AE5" t="n">
-        <v>1106090.114609538</v>
+        <v>1224244.644544694</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.55194254621482e-06</v>
+        <v>2.380286834708208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.24609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000526.426478429</v>
+        <v>1107404.453907498</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.259026371737</v>
+        <v>1157.529326778445</v>
       </c>
       <c r="AB2" t="n">
-        <v>1437.010734039953</v>
+        <v>1583.782691488067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1299.864446440411</v>
+        <v>1432.628694265413</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050259.026371737</v>
+        <v>1157529.326778444</v>
       </c>
       <c r="AE2" t="n">
-        <v>1437010.734039953</v>
+        <v>1583782.691488067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.3351928902477e-06</v>
+        <v>2.08621255384419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.748046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1299864.446440411</v>
+        <v>1432628.694265413</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>761.602601112822</v>
+        <v>853.5363813393473</v>
       </c>
       <c r="AB3" t="n">
-        <v>1042.058278377988</v>
+        <v>1167.846132316057</v>
       </c>
       <c r="AC3" t="n">
-        <v>942.6056988275719</v>
+        <v>1056.388536530153</v>
       </c>
       <c r="AD3" t="n">
-        <v>761602.601112822</v>
+        <v>853536.3813393472</v>
       </c>
       <c r="AE3" t="n">
-        <v>1042058.278377988</v>
+        <v>1167846.132316058</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.562406076418857e-06</v>
+        <v>2.441228675373469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.85807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>942605.6988275719</v>
+        <v>1056388.536530154</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>749.5291721507825</v>
+        <v>841.4629523773078</v>
       </c>
       <c r="AB4" t="n">
-        <v>1025.538880230032</v>
+        <v>1151.326734168102</v>
       </c>
       <c r="AC4" t="n">
-        <v>927.6628888537359</v>
+        <v>1041.445726556317</v>
       </c>
       <c r="AD4" t="n">
-        <v>749529.1721507825</v>
+        <v>841462.9523773078</v>
       </c>
       <c r="AE4" t="n">
-        <v>1025538.880230032</v>
+        <v>1151326.734168102</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575132647928203e-06</v>
+        <v>2.461113692320545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.67252604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>927662.8888537359</v>
+        <v>1041445.726556317</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>651.9487854738519</v>
+        <v>746.4856824878292</v>
       </c>
       <c r="AB2" t="n">
-        <v>892.0250902358235</v>
+        <v>1021.374643403892</v>
       </c>
       <c r="AC2" t="n">
-        <v>806.891467588793</v>
+        <v>923.8960809457393</v>
       </c>
       <c r="AD2" t="n">
-        <v>651948.785473852</v>
+        <v>746485.6824878292</v>
       </c>
       <c r="AE2" t="n">
-        <v>892025.0902358235</v>
+        <v>1021374.643403892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566131581391437e-06</v>
+        <v>2.552287259480934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.47591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>806891.467588793</v>
+        <v>923896.0809457393</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2497.559777824406</v>
+        <v>2655.121154115038</v>
       </c>
       <c r="AB2" t="n">
-        <v>3417.27147258051</v>
+        <v>3632.853898738701</v>
       </c>
       <c r="AC2" t="n">
-        <v>3091.131879407932</v>
+        <v>3286.139421385412</v>
       </c>
       <c r="AD2" t="n">
-        <v>2497559.777824406</v>
+        <v>2655121.154115038</v>
       </c>
       <c r="AE2" t="n">
-        <v>3417271.47258051</v>
+        <v>3632853.898738701</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.735861875985431e-07</v>
+        <v>1.290619464868979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.69596354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3091131.879407932</v>
+        <v>3286139.421385412</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1469.702012186013</v>
+        <v>1585.777410280539</v>
       </c>
       <c r="AB3" t="n">
-        <v>2010.911131749597</v>
+        <v>2169.730612307676</v>
       </c>
       <c r="AC3" t="n">
-        <v>1818.992595666914</v>
+        <v>1962.654567905071</v>
       </c>
       <c r="AD3" t="n">
-        <v>1469702.012186013</v>
+        <v>1585777.410280538</v>
       </c>
       <c r="AE3" t="n">
-        <v>2010911.131749597</v>
+        <v>2169730.612307676</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202892039399865e-06</v>
+        <v>1.777129609218191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.650390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1818992.595666914</v>
+        <v>1962654.567905071</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1249.329692409948</v>
+        <v>1348.810788734582</v>
       </c>
       <c r="AB4" t="n">
-        <v>1709.388001691391</v>
+        <v>1845.502426478979</v>
       </c>
       <c r="AC4" t="n">
-        <v>1546.246409951092</v>
+        <v>1669.370265074748</v>
       </c>
       <c r="AD4" t="n">
-        <v>1249329.692409948</v>
+        <v>1348810.788734582</v>
       </c>
       <c r="AE4" t="n">
-        <v>1709388.001691391</v>
+        <v>1845502.426478979</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32283657513372e-06</v>
+        <v>1.954333363948258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.23177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1546246.409951092</v>
+        <v>1669370.265074748</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1142.082117939504</v>
+        <v>1241.477873409566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1562.647138871871</v>
+        <v>1698.644796537261</v>
       </c>
       <c r="AC5" t="n">
-        <v>1413.510289126973</v>
+        <v>1536.528521218689</v>
       </c>
       <c r="AD5" t="n">
-        <v>1142082.117939504</v>
+        <v>1241477.873409566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1562647.13887187</v>
+        <v>1698644.796537261</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385073805498085e-06</v>
+        <v>2.046281453430525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1413510.289126973</v>
+        <v>1536528.521218689</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1068.412834219306</v>
+        <v>1167.893841035389</v>
       </c>
       <c r="AB6" t="n">
-        <v>1461.849574826477</v>
+        <v>1597.963877144516</v>
       </c>
       <c r="AC6" t="n">
-        <v>1322.332703123801</v>
+        <v>1445.45644746623</v>
       </c>
       <c r="AD6" t="n">
-        <v>1068412.834219306</v>
+        <v>1167893.841035389</v>
       </c>
       <c r="AE6" t="n">
-        <v>1461849.574826477</v>
+        <v>1597963.877144516</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423775121215166e-06</v>
+        <v>2.103458034390226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.51627604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1322332.703123801</v>
+        <v>1445456.44746623</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>995.85428549285</v>
+        <v>1095.249951454361</v>
       </c>
       <c r="AB7" t="n">
-        <v>1362.571767401688</v>
+        <v>1498.56930259753</v>
       </c>
       <c r="AC7" t="n">
-        <v>1232.529830302357</v>
+        <v>1355.547951612847</v>
       </c>
       <c r="AD7" t="n">
-        <v>995854.28549285</v>
+        <v>1095249.951454361</v>
       </c>
       <c r="AE7" t="n">
-        <v>1362571.767401688</v>
+        <v>1498569.30259753</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.460014521174163e-06</v>
+        <v>2.156997428265977e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.95638020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1232529.830302357</v>
+        <v>1355547.951612847</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>964.8237965534395</v>
+        <v>1064.21946251495</v>
       </c>
       <c r="AB8" t="n">
-        <v>1320.114483466232</v>
+        <v>1456.112018662074</v>
       </c>
       <c r="AC8" t="n">
-        <v>1194.124609956528</v>
+        <v>1317.142731267018</v>
       </c>
       <c r="AD8" t="n">
-        <v>964823.7965534395</v>
+        <v>1064219.46251495</v>
       </c>
       <c r="AE8" t="n">
-        <v>1320114.483466232</v>
+        <v>1456112.018662073</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.468877417903266e-06</v>
+        <v>2.170091301768199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1194124.609956528</v>
+        <v>1317142.731267018</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>956.2753588151359</v>
+        <v>1047.544510846569</v>
       </c>
       <c r="AB9" t="n">
-        <v>1308.418133822229</v>
+        <v>1433.296614142446</v>
       </c>
       <c r="AC9" t="n">
-        <v>1183.544543506619</v>
+        <v>1296.504796933122</v>
       </c>
       <c r="AD9" t="n">
-        <v>956275.3588151359</v>
+        <v>1047544.510846569</v>
       </c>
       <c r="AE9" t="n">
-        <v>1308418.133822229</v>
+        <v>1433296.614142446</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.472619529855553e-06</v>
+        <v>2.175619826135803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.767578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1183544.543506619</v>
+        <v>1296504.796933122</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3603.024761920249</v>
+        <v>3790.491792215202</v>
       </c>
       <c r="AB2" t="n">
-        <v>4929.817433493634</v>
+        <v>5186.318094804882</v>
       </c>
       <c r="AC2" t="n">
-        <v>4459.32257668304</v>
+        <v>4691.34317487967</v>
       </c>
       <c r="AD2" t="n">
-        <v>3603024.761920249</v>
+        <v>3790491.792215202</v>
       </c>
       <c r="AE2" t="n">
-        <v>4929817.433493634</v>
+        <v>5186318.094804882</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.135171191147798e-07</v>
+        <v>1.036147452499217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4459322.57668304</v>
+        <v>4691343.17487967</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1847.091842720919</v>
+        <v>1974.941244476947</v>
       </c>
       <c r="AB3" t="n">
-        <v>2527.272547151731</v>
+        <v>2702.201738951861</v>
       </c>
       <c r="AC3" t="n">
-        <v>2286.073202300867</v>
+        <v>2444.307397550255</v>
       </c>
       <c r="AD3" t="n">
-        <v>1847091.842720919</v>
+        <v>1974941.244476947</v>
       </c>
       <c r="AE3" t="n">
-        <v>2527272.547151731</v>
+        <v>2702201.738951861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.073644458793007e-06</v>
+        <v>1.559113216860772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.77278645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2286073.202300867</v>
+        <v>2444307.397550255</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1521.587598849874</v>
+        <v>1632.46437577906</v>
       </c>
       <c r="AB4" t="n">
-        <v>2081.903280453623</v>
+        <v>2233.609778186306</v>
       </c>
       <c r="AC4" t="n">
-        <v>1883.209353336734</v>
+        <v>2020.437195847217</v>
       </c>
       <c r="AD4" t="n">
-        <v>1521587.598849874</v>
+        <v>1632464.37577906</v>
       </c>
       <c r="AE4" t="n">
-        <v>2081903.280453623</v>
+        <v>2233609.778186306</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210293567919923e-06</v>
+        <v>1.757550819148161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.52408854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1883209.353336734</v>
+        <v>2020437.195847217</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1381.101442735753</v>
+        <v>1483.363985478213</v>
       </c>
       <c r="AB5" t="n">
-        <v>1889.683923846496</v>
+        <v>2029.604046331708</v>
       </c>
       <c r="AC5" t="n">
-        <v>1709.33514234263</v>
+        <v>1835.901484716979</v>
       </c>
       <c r="AD5" t="n">
-        <v>1381101.442735753</v>
+        <v>1483363.985478213</v>
       </c>
       <c r="AE5" t="n">
-        <v>1889683.923846496</v>
+        <v>2029604.046331708</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.282508826284911e-06</v>
+        <v>1.862419579801426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.08528645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1709335.14234263</v>
+        <v>1835901.484716979</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1293.379505544209</v>
+        <v>1395.556707432096</v>
       </c>
       <c r="AB6" t="n">
-        <v>1769.658899362287</v>
+        <v>1909.462254725302</v>
       </c>
       <c r="AC6" t="n">
-        <v>1600.765137739014</v>
+        <v>1727.225857081424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1293379.505544208</v>
+        <v>1395556.707432096</v>
       </c>
       <c r="AE6" t="n">
-        <v>1769658.899362287</v>
+        <v>1909462.254725302</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.327204472395174e-06</v>
+        <v>1.92732521221626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.27473958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1600765.137739014</v>
+        <v>1727225.857081424</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1228.084940416893</v>
+        <v>1330.347393650802</v>
       </c>
       <c r="AB7" t="n">
-        <v>1680.319994762183</v>
+        <v>1820.239994777847</v>
       </c>
       <c r="AC7" t="n">
-        <v>1519.952612806004</v>
+        <v>1646.518844399126</v>
       </c>
       <c r="AD7" t="n">
-        <v>1228084.940416893</v>
+        <v>1330347.393650802</v>
       </c>
       <c r="AE7" t="n">
-        <v>1680319.994762183</v>
+        <v>1820239.994777847</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.358140312378073e-06</v>
+        <v>1.972249280511876e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.744140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1519952.612806004</v>
+        <v>1646518.844399126</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1181.66681407602</v>
+        <v>1275.400373977772</v>
       </c>
       <c r="AB8" t="n">
-        <v>1616.808666479393</v>
+        <v>1745.059058369784</v>
       </c>
       <c r="AC8" t="n">
-        <v>1462.502716555815</v>
+        <v>1578.513071044742</v>
       </c>
       <c r="AD8" t="n">
-        <v>1181666.81407602</v>
+        <v>1275400.373977772</v>
       </c>
       <c r="AE8" t="n">
-        <v>1616808.666479393</v>
+        <v>1745059.058369784</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.381579430401926e-06</v>
+        <v>2.006286841459783e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.36002604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1462502.716555815</v>
+        <v>1578513.071044742</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1148.257424529032</v>
+        <v>1241.990984430784</v>
       </c>
       <c r="AB9" t="n">
-        <v>1571.096465782962</v>
+        <v>1699.346857673352</v>
       </c>
       <c r="AC9" t="n">
-        <v>1421.153224136374</v>
+        <v>1537.163578625301</v>
       </c>
       <c r="AD9" t="n">
-        <v>1148257.424529032</v>
+        <v>1241990.984430784</v>
       </c>
       <c r="AE9" t="n">
-        <v>1571096.465782962</v>
+        <v>1699346.857673352</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394959655670603e-06</v>
+        <v>2.02571719001709e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.14518229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1421153.224136374</v>
+        <v>1537163.578625301</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1103.686203169659</v>
+        <v>1205.863315548996</v>
       </c>
       <c r="AB10" t="n">
-        <v>1510.112154375559</v>
+        <v>1649.915387269026</v>
       </c>
       <c r="AC10" t="n">
-        <v>1365.989169817675</v>
+        <v>1492.449778378859</v>
       </c>
       <c r="AD10" t="n">
-        <v>1103686.203169659</v>
+        <v>1205863.315548996</v>
       </c>
       <c r="AE10" t="n">
-        <v>1510112.154375559</v>
+        <v>1649915.387269026</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410237785232709e-06</v>
+        <v>2.047903616383943e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.904296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1365989.169817675</v>
+        <v>1492449.778378859</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1070.822273821341</v>
+        <v>1164.641085069115</v>
       </c>
       <c r="AB11" t="n">
-        <v>1465.146276386954</v>
+        <v>1593.513312929994</v>
       </c>
       <c r="AC11" t="n">
-        <v>1325.314772114297</v>
+        <v>1441.430638853936</v>
       </c>
       <c r="AD11" t="n">
-        <v>1070822.273821342</v>
+        <v>1164641.085069115</v>
       </c>
       <c r="AE11" t="n">
-        <v>1465146.276386954</v>
+        <v>1593513.312929994</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421150734919928e-06</v>
+        <v>2.063751063788839e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.73502604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1325314.772114297</v>
+        <v>1441430.638853936</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1054.514561603602</v>
+        <v>1148.333372851375</v>
       </c>
       <c r="AB12" t="n">
-        <v>1442.833345085156</v>
+        <v>1571.200381628196</v>
       </c>
       <c r="AC12" t="n">
-        <v>1305.131355659546</v>
+        <v>1421.247222399186</v>
       </c>
       <c r="AD12" t="n">
-        <v>1054514.561603602</v>
+        <v>1148333.372851375</v>
       </c>
       <c r="AE12" t="n">
-        <v>1442833.345085156</v>
+        <v>1571200.381628196</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.424851648292116e-06</v>
+        <v>2.069125415517456e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.6796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1305131.355659546</v>
+        <v>1421247.222399186</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1057.076296437378</v>
+        <v>1150.895107685151</v>
       </c>
       <c r="AB13" t="n">
-        <v>1446.338423700492</v>
+        <v>1574.705460243532</v>
       </c>
       <c r="AC13" t="n">
-        <v>1308.301914491243</v>
+        <v>1424.417781230883</v>
       </c>
       <c r="AD13" t="n">
-        <v>1057076.296437378</v>
+        <v>1150895.107685151</v>
       </c>
       <c r="AE13" t="n">
-        <v>1446338.423700492</v>
+        <v>1574705.460243532</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426464866941531e-06</v>
+        <v>2.071468081655571e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.65690104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1308301.914491243</v>
+        <v>1424417.781230883</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.0081745904749</v>
+        <v>718.3715371189667</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.9542931879993</v>
+        <v>982.9076294016572</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.1221641539522</v>
+        <v>889.1003047710843</v>
       </c>
       <c r="AD2" t="n">
-        <v>619008.1745904749</v>
+        <v>718371.5371189667</v>
       </c>
       <c r="AE2" t="n">
-        <v>846954.2931879993</v>
+        <v>982907.6294016573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500407612223412e-06</v>
+        <v>2.501090096728584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>766122.1641539523</v>
+        <v>889100.3047710843</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1524.757251179111</v>
+        <v>1643.810114470329</v>
       </c>
       <c r="AB2" t="n">
-        <v>2086.240138605677</v>
+        <v>2249.133518402365</v>
       </c>
       <c r="AC2" t="n">
-        <v>1887.132307833575</v>
+        <v>2034.479372084761</v>
       </c>
       <c r="AD2" t="n">
-        <v>1524757.251179111</v>
+        <v>1643810.114470329</v>
       </c>
       <c r="AE2" t="n">
-        <v>2086240.138605677</v>
+        <v>2249133.518402365</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.128623323258546e-06</v>
+        <v>1.717659309096892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.14322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1887132.307833575</v>
+        <v>2034479.372084761</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1039.940254647952</v>
+        <v>1135.165495011722</v>
       </c>
       <c r="AB3" t="n">
-        <v>1422.892135335391</v>
+        <v>1553.183510242212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1287.093306980636</v>
+        <v>1404.949855931442</v>
       </c>
       <c r="AD3" t="n">
-        <v>1039940.254647952</v>
+        <v>1135165.495011722</v>
       </c>
       <c r="AE3" t="n">
-        <v>1422892.135335391</v>
+        <v>1553183.510242212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402026287759366e-06</v>
+        <v>2.133753091169072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.26432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1287093.306980636</v>
+        <v>1404949.855931442</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.9304397821826</v>
+        <v>991.1555906374015</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.851553371405</v>
+        <v>1356.142805808676</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.858001611098</v>
+        <v>1226.714439780678</v>
       </c>
       <c r="AD4" t="n">
-        <v>895930.4397821826</v>
+        <v>991155.5906374014</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225851.553371405</v>
+        <v>1356142.805808676</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498804248435114e-06</v>
+        <v>2.28104011035823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.69856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108858.001611098</v>
+        <v>1226714.439780678</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.8183658565654</v>
+        <v>921.1010652445196</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.867073635067</v>
+        <v>1260.291113578598</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.98432134433</v>
+        <v>1140.010698528343</v>
       </c>
       <c r="AD5" t="n">
-        <v>833818.3658565654</v>
+        <v>921101.0652445196</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140867.073635067</v>
+        <v>1260291.113578598</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.537891675317113e-06</v>
+        <v>2.340527524156011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.12239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031984.32134433</v>
+        <v>1140010.698528343</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>838.4704096393324</v>
+        <v>925.7531090272865</v>
       </c>
       <c r="AB6" t="n">
-        <v>1147.232205172336</v>
+        <v>1266.656245115867</v>
       </c>
       <c r="AC6" t="n">
-        <v>1037.7419736612</v>
+        <v>1145.768350845213</v>
       </c>
       <c r="AD6" t="n">
-        <v>838470.4096393324</v>
+        <v>925753.1090272865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1147232.205172336</v>
+        <v>1266656.245115867</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.537996187153695e-06</v>
+        <v>2.340686581412155e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.119140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1037741.9736612</v>
+        <v>1145768.350845213</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2066.33948380348</v>
+        <v>2213.1607828489</v>
       </c>
       <c r="AB2" t="n">
-        <v>2827.256842204162</v>
+        <v>3028.144220856851</v>
       </c>
       <c r="AC2" t="n">
-        <v>2557.427417264097</v>
+        <v>2739.142386445265</v>
       </c>
       <c r="AD2" t="n">
-        <v>2066339.483803479</v>
+        <v>2213160.7828489</v>
       </c>
       <c r="AE2" t="n">
-        <v>2827256.842204162</v>
+        <v>3028144.220856851</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.659759722097535e-07</v>
+        <v>1.442115859079614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2557427.417264097</v>
+        <v>2739142.386445265</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1294.559541283514</v>
+        <v>1400.720416272919</v>
       </c>
       <c r="AB3" t="n">
-        <v>1771.273476320308</v>
+        <v>1916.527468968073</v>
       </c>
       <c r="AC3" t="n">
-        <v>1602.225621738234</v>
+        <v>1733.616777192956</v>
       </c>
       <c r="AD3" t="n">
-        <v>1294559.541283514</v>
+        <v>1400720.416272919</v>
       </c>
       <c r="AE3" t="n">
-        <v>1771273.476320307</v>
+        <v>1916527.468968072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275591395802401e-06</v>
+        <v>1.904344035995027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1602225.621738234</v>
+        <v>1733616.777192956</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1111.018827918595</v>
+        <v>1209.013481754969</v>
       </c>
       <c r="AB4" t="n">
-        <v>1520.144975049627</v>
+        <v>1654.225583647564</v>
       </c>
       <c r="AC4" t="n">
-        <v>1375.064472167762</v>
+        <v>1496.348615664428</v>
       </c>
       <c r="AD4" t="n">
-        <v>1111018.827918595</v>
+        <v>1209013.481754969</v>
       </c>
       <c r="AE4" t="n">
-        <v>1520144.975049627</v>
+        <v>1654225.583647564</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386477387612312e-06</v>
+        <v>2.069886918985208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.623046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1375064.472167762</v>
+        <v>1496348.615664428</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1013.721859048611</v>
+        <v>1111.631172030413</v>
       </c>
       <c r="AB5" t="n">
-        <v>1387.018969802393</v>
+        <v>1520.982811278132</v>
       </c>
       <c r="AC5" t="n">
-        <v>1254.643826017802</v>
+        <v>1375.822346482529</v>
       </c>
       <c r="AD5" t="n">
-        <v>1013721.859048611</v>
+        <v>1111631.172030413</v>
       </c>
       <c r="AE5" t="n">
-        <v>1387018.969802393</v>
+        <v>1520982.811278132</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445240925921739e-06</v>
+        <v>2.157615633745885e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.66276041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1254643.826017802</v>
+        <v>1375822.346482529</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>948.0506374672536</v>
+        <v>1037.793818804576</v>
       </c>
       <c r="AB6" t="n">
-        <v>1297.164707224958</v>
+        <v>1419.955287120418</v>
       </c>
       <c r="AC6" t="n">
-        <v>1173.365128149509</v>
+        <v>1284.436747437407</v>
       </c>
       <c r="AD6" t="n">
-        <v>948050.6374672536</v>
+        <v>1037793.818804576</v>
       </c>
       <c r="AE6" t="n">
-        <v>1297164.707224958</v>
+        <v>1419955.287120418</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482773117341972e-06</v>
+        <v>2.213647843687207e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.08984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1173365.128149508</v>
+        <v>1284436.747437407</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>906.7695978267443</v>
+        <v>1004.593569953975</v>
       </c>
       <c r="AB7" t="n">
-        <v>1240.682167597878</v>
+        <v>1374.529241951419</v>
       </c>
       <c r="AC7" t="n">
-        <v>1122.273202830695</v>
+        <v>1243.346100263483</v>
       </c>
       <c r="AD7" t="n">
-        <v>906769.5978267443</v>
+        <v>1004593.569953975</v>
       </c>
       <c r="AE7" t="n">
-        <v>1240682.167597878</v>
+        <v>1374529.24195142</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.495954664462751e-06</v>
+        <v>2.233326716347565e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.89453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1122273.202830695</v>
+        <v>1243346.100263483</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>908.0599175013701</v>
+        <v>1005.883889628601</v>
       </c>
       <c r="AB8" t="n">
-        <v>1242.447639901588</v>
+        <v>1376.29471425513</v>
       </c>
       <c r="AC8" t="n">
-        <v>1123.870180935594</v>
+        <v>1244.943078368382</v>
       </c>
       <c r="AD8" t="n">
-        <v>908059.9175013702</v>
+        <v>1005883.889628601</v>
       </c>
       <c r="AE8" t="n">
-        <v>1242447.639901588</v>
+        <v>1376294.714255129</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.498168359399065e-06</v>
+        <v>2.236631565191288e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.86197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1123870.180935594</v>
+        <v>1244943.078368383</v>
       </c>
     </row>
   </sheetData>
